--- a/Data/collapsed database manual cases/puebla_collapsed_edited.xlsx
+++ b/Data/collapsed database manual cases/puebla_collapsed_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7da8e9ec94b4821/Documents/ITAM/RA - Horacio/Monitoring Brokers/Data/States/puebla/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpzorrilla/Documents/GitHub/The-Mexican-municipal-elections-electoral-precinct-level-database/Data/collapsed database manual cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{E2410087-3D77-C044-9FA9-920F678F3575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB79CDDD-D7BD-F540-A8AC-EF0A3A7B873C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21B56D0-9090-164C-A64E-D781B76A85C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25720" yWindow="0" windowWidth="25480" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4480" yWindow="500" windowWidth="31360" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13739" uniqueCount="2827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13743" uniqueCount="2830">
   <si>
     <t>uniqueid</t>
   </si>
@@ -8504,6 +8504,15 @@
   </si>
   <si>
     <t>INE</t>
+  </si>
+  <si>
+    <t>VIDAL ROA BENITEZ</t>
+  </si>
+  <si>
+    <t>VIDAL ROA BENÍTEZ</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Anexo:Presidentes_municipales_de_Puebla_(2018-2021)</t>
   </si>
 </sst>
 </file>
@@ -8879,10 +8888,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S1304"/>
+  <dimension ref="A1:S1305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H880" sqref="H880:I880"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H1310" sqref="H1310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -67799,6 +67808,26 @@
         <v>44</v>
       </c>
     </row>
+    <row r="1305" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1305">
+        <v>21129</v>
+      </c>
+      <c r="B1305">
+        <v>2022</v>
+      </c>
+      <c r="D1305" t="s">
+        <v>2827</v>
+      </c>
+      <c r="F1305" t="s">
+        <v>2828</v>
+      </c>
+      <c r="H1305" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1305" t="s">
+        <v>2829</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:S1304" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="4">

--- a/Data/collapsed database manual cases/puebla_collapsed_edited.xlsx
+++ b/Data/collapsed database manual cases/puebla_collapsed_edited.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpzorrilla/Documents/GitHub/The-Mexican-municipal-elections-electoral-precinct-level-database/Data/collapsed database manual cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21B56D0-9090-164C-A64E-D781B76A85C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E508CE7-08EC-C543-8DA9-272692067624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4480" yWindow="500" windowWidth="31360" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$1304</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13743" uniqueCount="2830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14287" uniqueCount="3003">
   <si>
     <t>uniqueid</t>
   </si>
@@ -8509,10 +8522,529 @@
     <t>VIDAL ROA BENITEZ</t>
   </si>
   <si>
-    <t>VIDAL ROA BENÍTEZ</t>
-  </si>
-  <si>
     <t>https://es.wikipedia.org/wiki/Anexo:Presidentes_municipales_de_Puebla_(2018-2021)</t>
+  </si>
+  <si>
+    <t>MC_PCPP</t>
+  </si>
+  <si>
+    <t>DOMINGO CORDOVA MARTINEZ</t>
+  </si>
+  <si>
+    <t>FRANCISCO ALEJANDRO MEDINA</t>
+  </si>
+  <si>
+    <t>MC_PSI</t>
+  </si>
+  <si>
+    <t>PABLO ROMERO GARCIA</t>
+  </si>
+  <si>
+    <t>PAN_MC</t>
+  </si>
+  <si>
+    <t>ADRIANA LOPEZ PATI√ëO</t>
+  </si>
+  <si>
+    <t>JOSE HERNANDEZ RIVERA</t>
+  </si>
+  <si>
+    <t>ALEJANDRA CELESTINO CASTRO</t>
+  </si>
+  <si>
+    <t>PAN_MC_PSI</t>
+  </si>
+  <si>
+    <t>FRANCISCO XAVIER RODRIGUEZ RIVERO</t>
+  </si>
+  <si>
+    <t>PAN_PCPP</t>
+  </si>
+  <si>
+    <t>VALERIANO FILOMENO HERNANDEZ ORTIZ</t>
+  </si>
+  <si>
+    <t>NORBERTO ROLDAN ARIZA</t>
+  </si>
+  <si>
+    <t>ANGEL FLORES RAMOS</t>
+  </si>
+  <si>
+    <t>EYERIM ESPINOSA SOSA</t>
+  </si>
+  <si>
+    <t>MORENA</t>
+  </si>
+  <si>
+    <t>PAN_PCPP_PSI</t>
+  </si>
+  <si>
+    <t>IGNACIO SALVADOR FERNANDEZ</t>
+  </si>
+  <si>
+    <t>PAN_PRD</t>
+  </si>
+  <si>
+    <t>ANTONIO FRANCISCO PEREZ</t>
+  </si>
+  <si>
+    <t>GUILLERMO POZOS JUAREZ</t>
+  </si>
+  <si>
+    <t>PAN_PRD_MC</t>
+  </si>
+  <si>
+    <t>EDGAR JESUS MURRIETA NAVARRO</t>
+  </si>
+  <si>
+    <t>PEDRO LEONIDES ORDAZ ROJAS</t>
+  </si>
+  <si>
+    <t>ALEJANDRO LOPEZ VELASCO</t>
+  </si>
+  <si>
+    <t>MARIA GUADALUPE RAMIREZ APARICIO</t>
+  </si>
+  <si>
+    <t>RODOLFO MELENDEZ MENESES</t>
+  </si>
+  <si>
+    <t>ATANACIO PEREZ CA√ëETE</t>
+  </si>
+  <si>
+    <t>PAN_PRD_MC_PCPP</t>
+  </si>
+  <si>
+    <t>FRANCISCO JAVIER TIRADO SAAVEDRA</t>
+  </si>
+  <si>
+    <t>JORGE ALEJANDRO VERA PALACIOS</t>
+  </si>
+  <si>
+    <t>PAN_PRD_MC_PCPP_PSI</t>
+  </si>
+  <si>
+    <t>SIXTO GUILLERMO ROSALES FLORES</t>
+  </si>
+  <si>
+    <t>PAN_PRD_MC_PSI</t>
+  </si>
+  <si>
+    <t>HONOR HERNANDEZ HERNANDEZ</t>
+  </si>
+  <si>
+    <t>SERGIO SALOMON CESPEDES PEREGRINA</t>
+  </si>
+  <si>
+    <t>PAN_PRD_PCPP</t>
+  </si>
+  <si>
+    <t>CIRIACO AGUILAR SANCHEZ</t>
+  </si>
+  <si>
+    <t>MARIO ALBERTO CASTRO JIMENEZ</t>
+  </si>
+  <si>
+    <t>JAVIER PEREZ PEREZ</t>
+  </si>
+  <si>
+    <t>AURELIO FRANCISCO TAPIA DAVILA</t>
+  </si>
+  <si>
+    <t>PAN_PRD_PSI</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO MONGE ZU√ëIGA</t>
+  </si>
+  <si>
+    <t>VICTOR QUIJADA FLORES</t>
+  </si>
+  <si>
+    <t>HUMBERTO VAZQUEZ MU√ëOZ</t>
+  </si>
+  <si>
+    <t>PAN_PSI</t>
+  </si>
+  <si>
+    <t>JULIAN FLORES RAMIREZ</t>
+  </si>
+  <si>
+    <t>PANAL_PCPP</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO OLIVIER PACHECO</t>
+  </si>
+  <si>
+    <t>CARLOS ALFONSO ANDRADE VAZQUEZ</t>
+  </si>
+  <si>
+    <t>BERNARDINO AQUINO BELENDEZ</t>
+  </si>
+  <si>
+    <t>MIREYA GONZALEZ PEREZ</t>
+  </si>
+  <si>
+    <t>PRD_PSI</t>
+  </si>
+  <si>
+    <t>JOSE CANO VAZQUEZ</t>
+  </si>
+  <si>
+    <t>PRI_CP</t>
+  </si>
+  <si>
+    <t>JOSE EUSEBIO HERNANDEZ HERNANDEZ</t>
+  </si>
+  <si>
+    <t>GABRIELA MARIN CASTRO</t>
+  </si>
+  <si>
+    <t>PRI_PANAL</t>
+  </si>
+  <si>
+    <t>LAURA GUADALUPE VARGAS VARGAS</t>
+  </si>
+  <si>
+    <t>LUIS MARQUEZ LECONA</t>
+  </si>
+  <si>
+    <t>PT_MORENA_PES</t>
+  </si>
+  <si>
+    <t>ROBERTO RAMIREZ CERVANTES</t>
+  </si>
+  <si>
+    <t>MARIA DEL CARMEN NAVA MARTINEZ</t>
+  </si>
+  <si>
+    <t>FAVIAN CALIXTO ONOFRE</t>
+  </si>
+  <si>
+    <t>J BERNARDO MARIO DE LA ROSA ROMERO</t>
+  </si>
+  <si>
+    <t>ABEL GAMEZ VELEZ</t>
+  </si>
+  <si>
+    <t>FELIPE MARCOS VELASQUEZ</t>
+  </si>
+  <si>
+    <t>ANTONIO TEUTLI CUAUTLE</t>
+  </si>
+  <si>
+    <t>ALDO ROGELIO ARVIZU FLORES</t>
+  </si>
+  <si>
+    <t>ELEUTERIO MELCHOR CAMPOS</t>
+  </si>
+  <si>
+    <t>JOEL MARTINEZ GLORIA</t>
+  </si>
+  <si>
+    <t>JOSE RAUL BABINES PEREZ</t>
+  </si>
+  <si>
+    <t>MARIA GUADALUPE DANIEL HERNANDEZ</t>
+  </si>
+  <si>
+    <t>CARLOS AUGUSTO TENTLE VAZQUEZ</t>
+  </si>
+  <si>
+    <t>LETICIA JUAREZ MEJIA</t>
+  </si>
+  <si>
+    <t>PASCUAL MORALES MARTINEZ</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL ANTONIO VAZQUEZ</t>
+  </si>
+  <si>
+    <t>CIRO GAVILAN DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>GUSTAVO ADOLFO VARGAS CABRERA</t>
+  </si>
+  <si>
+    <t>ANGELICA PATRICIA ALVARADO JUAREZ</t>
+  </si>
+  <si>
+    <t>JOEL LOZANO ALAMEDA</t>
+  </si>
+  <si>
+    <t>CARLOS GILBERTO GARRIDO TORRES</t>
+  </si>
+  <si>
+    <t>VALERIO ESCORCIA CALVA</t>
+  </si>
+  <si>
+    <t>EUSTAQUIO RAMOS QUIAHUA</t>
+  </si>
+  <si>
+    <t>HILARIO VICENTE MARTINEZ ALCANTARA</t>
+  </si>
+  <si>
+    <t>ANTONIO VILLA VELIZ</t>
+  </si>
+  <si>
+    <t>CLAUDIA RIVERA VIVANCO</t>
+  </si>
+  <si>
+    <t>MARIA FABIOLA KARINA PEREZ POPOCA</t>
+  </si>
+  <si>
+    <t>VILIULFO ATLIXQUE√ëO ZAVALA</t>
+  </si>
+  <si>
+    <t>FELIPE APONTE TELLEZ</t>
+  </si>
+  <si>
+    <t>ARTURO GRACIEL LOPEZ VELEZ</t>
+  </si>
+  <si>
+    <t>MARIA NORMA LAYON AARUN</t>
+  </si>
+  <si>
+    <t>ISIDRO RAMIREZ VALIENTE</t>
+  </si>
+  <si>
+    <t>AUREA MARIA VARGAS GUERRERO</t>
+  </si>
+  <si>
+    <t>LUIS ALBERTO ARRIAGA LILA</t>
+  </si>
+  <si>
+    <t>IRENE MARINA AGUIRRE ROJAS</t>
+  </si>
+  <si>
+    <t>SILVANO TEODORO MAURICIO</t>
+  </si>
+  <si>
+    <t>EDMUNDO JESUS RAMIREZ CLEMENTE</t>
+  </si>
+  <si>
+    <t>ERASTO AMADOR BAEZ</t>
+  </si>
+  <si>
+    <t>MARISOL CRUZ GARCIA</t>
+  </si>
+  <si>
+    <t>FELIPE PATJANE MARTINEZ</t>
+  </si>
+  <si>
+    <t>JOSE LUIS LOPEZ GARCIA</t>
+  </si>
+  <si>
+    <t>NELSON FELICIANO BERISTAIN MACIAS</t>
+  </si>
+  <si>
+    <t>MIGUEL GUADALUPE MORALES ZENTENO</t>
+  </si>
+  <si>
+    <t>EBODIO SANTOS ALEJO</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE CONTRERAS PONCE</t>
+  </si>
+  <si>
+    <t>CLAUDIO HERNANDEZ CABANZO</t>
+  </si>
+  <si>
+    <t>PVEM_PCPP</t>
+  </si>
+  <si>
+    <t>EUSEBIO MARTINEZ BENITEZ</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL MORALES MORALES</t>
+  </si>
+  <si>
+    <t>PRD_MC_PCPP</t>
+  </si>
+  <si>
+    <t>REYNALDO GARCIA CAMPOS</t>
+  </si>
+  <si>
+    <t>AARON BONILLA PAULINO</t>
+  </si>
+  <si>
+    <t>MANUEL ALEJANDRO PORRAS FLORENTINO</t>
+  </si>
+  <si>
+    <t>REYNALDA CRISTINA CABANZO MENDEZ</t>
+  </si>
+  <si>
+    <t>ALICIA VARGAS MELO</t>
+  </si>
+  <si>
+    <t>ARACELI TEHUITZIL MU√ëOZ</t>
+  </si>
+  <si>
+    <t>VIRGILIO EFRAIN CORTES JIMENEZ</t>
+  </si>
+  <si>
+    <t>PAN_PRI</t>
+  </si>
+  <si>
+    <t>CECILIA HERNANDEZ ORDU√ëA</t>
+  </si>
+  <si>
+    <t>ANAYELI GONZALEZ CORDOBA</t>
+  </si>
+  <si>
+    <t>AMADEUZ CUADRADO GALEANO</t>
+  </si>
+  <si>
+    <t>PAN_PRI_PRD</t>
+  </si>
+  <si>
+    <t>ALVARO TAPIA CASTILLO</t>
+  </si>
+  <si>
+    <t>GUMARO SANDRE POPOCA</t>
+  </si>
+  <si>
+    <t>DANIEL GERARDO DOMINGUEZ ALARCON</t>
+  </si>
+  <si>
+    <t>PAN_PRI_PRD_PCPP_PSI</t>
+  </si>
+  <si>
+    <t>PAN_PRI_PRD_PSI</t>
+  </si>
+  <si>
+    <t>AURELIO FLORES SOLANO</t>
+  </si>
+  <si>
+    <t>PRI_PCPP</t>
+  </si>
+  <si>
+    <t>MARCOS SOLIS CARRERA</t>
+  </si>
+  <si>
+    <t>PRI_PRD</t>
+  </si>
+  <si>
+    <t>GERSON CALIXTO DATTOLI</t>
+  </si>
+  <si>
+    <t>IVAN CONRADO CAMACHO ROMERO</t>
+  </si>
+  <si>
+    <t>MARIO GINEZ HERNANDEZ</t>
+  </si>
+  <si>
+    <t>RAQUEL IRMA RAMOS ALONSO</t>
+  </si>
+  <si>
+    <t>ROSA HERNANDEZ REBOLLEDO</t>
+  </si>
+  <si>
+    <t>EMILIANO VAZQUEZ BONILLA</t>
+  </si>
+  <si>
+    <t>PRI_PRD_PCPP_PSI</t>
+  </si>
+  <si>
+    <t>PRI_PRD_PSI</t>
+  </si>
+  <si>
+    <t>CARLOS HERRERA GONZALEZ</t>
+  </si>
+  <si>
+    <t>PRI_PSI</t>
+  </si>
+  <si>
+    <t>JOSE EDGAR GARCIA RAMIREZ</t>
+  </si>
+  <si>
+    <t>PT_MORENA</t>
+  </si>
+  <si>
+    <t>JUAN GUTIERREZ BRIONES</t>
+  </si>
+  <si>
+    <t>ARMANDO RUIZ SOLIS</t>
+  </si>
+  <si>
+    <t>PORFIRIO PERALTA BENITEZ</t>
+  </si>
+  <si>
+    <t>PT_MORENA_PANAL</t>
+  </si>
+  <si>
+    <t>OLGA ROSAS PARRA</t>
+  </si>
+  <si>
+    <t>RAUL PINEDA RAYGOZA</t>
+  </si>
+  <si>
+    <t>CARLOS IGNACIO MIER BA√ëUELOS</t>
+  </si>
+  <si>
+    <t>ROSA MARIA GARZON HERNANDEZ</t>
+  </si>
+  <si>
+    <t>PT_MORENA_PCPP</t>
+  </si>
+  <si>
+    <t>LINO ROMERO POSADAS</t>
+  </si>
+  <si>
+    <t>PT_MORENA_PSI</t>
+  </si>
+  <si>
+    <t>GERARDO CORTES CABALLERO</t>
+  </si>
+  <si>
+    <t>MAYRA SALGADO ROMERO</t>
+  </si>
+  <si>
+    <t>AIDE MENDOZA LEON</t>
+  </si>
+  <si>
+    <t>PT_PANAL</t>
+  </si>
+  <si>
+    <t>PASCASIA CECILIA JAIME LINO</t>
+  </si>
+  <si>
+    <t>PT_PCPP</t>
+  </si>
+  <si>
+    <t>PT_PCPP_PANAL</t>
+  </si>
+  <si>
+    <t>PT_PSI</t>
+  </si>
+  <si>
+    <t>RODOLFO GARCIA LOPEZ</t>
+  </si>
+  <si>
+    <t>CELSO HERREROS AMIGON</t>
+  </si>
+  <si>
+    <t>FXM</t>
+  </si>
+  <si>
+    <t>DENIS KARINA ROSALES MENDEZ</t>
+  </si>
+  <si>
+    <t>PAN_PRI_PRD_PCPP_PSI_PANAL</t>
+  </si>
+  <si>
+    <t>LORENZO RIVERA NAVA</t>
+  </si>
+  <si>
+    <t>ERNESTO GARCIA RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>BALTAZAR NARCISO BALTAZAR</t>
+  </si>
+  <si>
+    <t>https://www.ieepuebla.org.mx/2021/PP/GANADORES-AYU.pdf</t>
+  </si>
+  <si>
+    <t>PCPP</t>
   </si>
 </sst>
 </file>
@@ -8888,17 +9420,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S1305"/>
+  <dimension ref="A1:S1457"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H1310" sqref="H1310"/>
+    <sheetView tabSelected="1" topLeftCell="A1415" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E1312" sqref="E1312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
     <col min="4" max="4" width="34.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.6640625" bestFit="1" customWidth="1"/>
@@ -67810,22 +68342,2870 @@
     </row>
     <row r="1305" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1305">
+        <v>21023</v>
+      </c>
+      <c r="B1305">
+        <v>2021</v>
+      </c>
+      <c r="E1305" t="s">
+        <v>2829</v>
+      </c>
+      <c r="F1305" t="s">
+        <v>319</v>
+      </c>
+      <c r="H1305" t="s">
+        <v>3002</v>
+      </c>
+      <c r="I1305" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1306">
+        <v>21046</v>
+      </c>
+      <c r="B1306">
+        <v>2021</v>
+      </c>
+      <c r="E1306" t="s">
+        <v>2829</v>
+      </c>
+      <c r="F1306" t="s">
+        <v>2830</v>
+      </c>
+      <c r="H1306" t="s">
+        <v>3002</v>
+      </c>
+      <c r="I1306" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1307">
+        <v>21130</v>
+      </c>
+      <c r="B1307">
+        <v>2021</v>
+      </c>
+      <c r="E1307" t="s">
+        <v>2829</v>
+      </c>
+      <c r="F1307" t="s">
+        <v>2831</v>
+      </c>
+      <c r="H1307" t="s">
+        <v>3002</v>
+      </c>
+      <c r="I1307" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1308">
+        <v>21039</v>
+      </c>
+      <c r="B1308">
+        <v>2021</v>
+      </c>
+      <c r="E1308" t="s">
+        <v>2832</v>
+      </c>
+      <c r="F1308" t="s">
+        <v>519</v>
+      </c>
+      <c r="H1308" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1308" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1309">
+        <v>21143</v>
+      </c>
+      <c r="B1309">
+        <v>2021</v>
+      </c>
+      <c r="E1309" t="s">
+        <v>2832</v>
+      </c>
+      <c r="F1309" t="s">
+        <v>2833</v>
+      </c>
+      <c r="H1309" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1309" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1310">
+        <v>21042</v>
+      </c>
+      <c r="B1310">
+        <v>2021</v>
+      </c>
+      <c r="E1310" t="s">
+        <v>2834</v>
+      </c>
+      <c r="F1310" t="s">
+        <v>2835</v>
+      </c>
+      <c r="H1310" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1310" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1311">
+        <v>21089</v>
+      </c>
+      <c r="B1311">
+        <v>2021</v>
+      </c>
+      <c r="E1311" t="s">
+        <v>2834</v>
+      </c>
+      <c r="F1311" t="s">
+        <v>2836</v>
+      </c>
+      <c r="H1311" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1311" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1312">
+        <v>21111</v>
+      </c>
+      <c r="B1312">
+        <v>2021</v>
+      </c>
+      <c r="E1312" t="s">
+        <v>2834</v>
+      </c>
+      <c r="F1312" t="s">
+        <v>1403</v>
+      </c>
+      <c r="H1312" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1312" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1313">
+        <v>21201</v>
+      </c>
+      <c r="B1313">
+        <v>2021</v>
+      </c>
+      <c r="E1313" t="s">
+        <v>2834</v>
+      </c>
+      <c r="F1313" t="s">
+        <v>2837</v>
+      </c>
+      <c r="H1313" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1313" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1314">
+        <v>21094</v>
+      </c>
+      <c r="B1314">
+        <v>2021</v>
+      </c>
+      <c r="E1314" t="s">
+        <v>2838</v>
+      </c>
+      <c r="F1314" t="s">
+        <v>2839</v>
+      </c>
+      <c r="H1314" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1314" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1315">
+        <v>21058</v>
+      </c>
+      <c r="B1315">
+        <v>2021</v>
+      </c>
+      <c r="E1315" t="s">
+        <v>2840</v>
+      </c>
+      <c r="F1315" t="s">
+        <v>2841</v>
+      </c>
+      <c r="H1315" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1315" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1316">
+        <v>21073</v>
+      </c>
+      <c r="B1316">
+        <v>2021</v>
+      </c>
+      <c r="E1316" t="s">
+        <v>2840</v>
+      </c>
+      <c r="F1316" t="s">
+        <v>2842</v>
+      </c>
+      <c r="H1316" t="s">
+        <v>3002</v>
+      </c>
+      <c r="I1316" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1317">
+        <v>21136</v>
+      </c>
+      <c r="B1317">
+        <v>2021</v>
+      </c>
+      <c r="E1317" t="s">
+        <v>2840</v>
+      </c>
+      <c r="F1317" t="s">
+        <v>2843</v>
+      </c>
+      <c r="H1317" t="s">
+        <v>3002</v>
+      </c>
+      <c r="I1317" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1318">
+        <v>21170</v>
+      </c>
+      <c r="B1318">
+        <v>2021</v>
+      </c>
+      <c r="E1318" t="s">
+        <v>2840</v>
+      </c>
+      <c r="F1318" t="s">
+        <v>2844</v>
+      </c>
+      <c r="H1318" t="s">
+        <v>3002</v>
+      </c>
+      <c r="I1318" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1319">
+        <v>21010</v>
+      </c>
+      <c r="B1319">
+        <v>2021</v>
+      </c>
+      <c r="E1319" t="s">
+        <v>2846</v>
+      </c>
+      <c r="F1319" t="s">
+        <v>2847</v>
+      </c>
+      <c r="H1319" t="s">
+        <v>3002</v>
+      </c>
+      <c r="I1319" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1320">
+        <v>21068</v>
+      </c>
+      <c r="B1320">
+        <v>2021</v>
+      </c>
+      <c r="E1320" t="s">
+        <v>2848</v>
+      </c>
+      <c r="F1320" t="s">
+        <v>2849</v>
+      </c>
+      <c r="H1320" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1320" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1321">
+        <v>21108</v>
+      </c>
+      <c r="B1321">
+        <v>2021</v>
+      </c>
+      <c r="E1321" t="s">
+        <v>2848</v>
+      </c>
+      <c r="F1321" t="s">
+        <v>2850</v>
+      </c>
+      <c r="H1321" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1321" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1322">
+        <v>21002</v>
+      </c>
+      <c r="B1322">
+        <v>2021</v>
+      </c>
+      <c r="E1322" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F1322" t="s">
+        <v>2852</v>
+      </c>
+      <c r="H1322" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1323">
+        <v>21011</v>
+      </c>
+      <c r="B1323">
+        <v>2021</v>
+      </c>
+      <c r="E1323" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F1323" t="s">
+        <v>2853</v>
+      </c>
+      <c r="H1323" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1323" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1324">
+        <v>21092</v>
+      </c>
+      <c r="B1324">
+        <v>2021</v>
+      </c>
+      <c r="E1324" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F1324" t="s">
+        <v>2854</v>
+      </c>
+      <c r="H1324" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1324" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1325">
+        <v>21109</v>
+      </c>
+      <c r="B1325">
+        <v>2021</v>
+      </c>
+      <c r="E1325" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F1325" t="s">
+        <v>2855</v>
+      </c>
+      <c r="H1325" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1326">
+        <v>21138</v>
+      </c>
+      <c r="B1326">
+        <v>2021</v>
+      </c>
+      <c r="E1326" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F1326" t="s">
+        <v>2856</v>
+      </c>
+      <c r="H1326" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1326" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1327">
+        <v>21159</v>
+      </c>
+      <c r="B1327">
+        <v>2021</v>
+      </c>
+      <c r="E1327" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F1327" t="s">
+        <v>2857</v>
+      </c>
+      <c r="H1327" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1327" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1328">
+        <v>21053</v>
+      </c>
+      <c r="B1328">
+        <v>2021</v>
+      </c>
+      <c r="E1328" t="s">
+        <v>2858</v>
+      </c>
+      <c r="F1328" t="s">
+        <v>2859</v>
+      </c>
+      <c r="H1328" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1329">
+        <v>21117</v>
+      </c>
+      <c r="B1329">
+        <v>2021</v>
+      </c>
+      <c r="E1329" t="s">
+        <v>2858</v>
+      </c>
+      <c r="F1329" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H1329" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1330">
+        <v>21194</v>
+      </c>
+      <c r="B1330">
+        <v>2021</v>
+      </c>
+      <c r="E1330" t="s">
+        <v>2858</v>
+      </c>
+      <c r="F1330" t="s">
+        <v>2416</v>
+      </c>
+      <c r="H1330" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1331">
+        <v>21198</v>
+      </c>
+      <c r="B1331">
+        <v>2021</v>
+      </c>
+      <c r="E1331" t="s">
+        <v>2861</v>
+      </c>
+      <c r="F1331" t="s">
+        <v>2862</v>
+      </c>
+      <c r="H1331" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1331" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1332">
+        <v>21036</v>
+      </c>
+      <c r="B1332">
+        <v>2021</v>
+      </c>
+      <c r="E1332" t="s">
+        <v>2863</v>
+      </c>
+      <c r="F1332" t="s">
+        <v>480</v>
+      </c>
+      <c r="H1332" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1332" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1333">
+        <v>21061</v>
+      </c>
+      <c r="B1333">
+        <v>2021</v>
+      </c>
+      <c r="E1333" t="s">
+        <v>2863</v>
+      </c>
+      <c r="F1333" t="s">
+        <v>2864</v>
+      </c>
+      <c r="H1333" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1333" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1334">
+        <v>21164</v>
+      </c>
+      <c r="B1334">
+        <v>2021</v>
+      </c>
+      <c r="E1334" t="s">
+        <v>2863</v>
+      </c>
+      <c r="F1334" t="s">
+        <v>2865</v>
+      </c>
+      <c r="H1334" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1334" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1335">
+        <v>21146</v>
+      </c>
+      <c r="B1335">
+        <v>2021</v>
+      </c>
+      <c r="E1335" t="s">
+        <v>2866</v>
+      </c>
+      <c r="F1335" t="s">
+        <v>2867</v>
+      </c>
+      <c r="H1335" t="s">
+        <v>3002</v>
+      </c>
+      <c r="I1335" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1336">
+        <v>21173</v>
+      </c>
+      <c r="B1336">
+        <v>2021</v>
+      </c>
+      <c r="E1336" t="s">
+        <v>2866</v>
+      </c>
+      <c r="F1336" t="s">
+        <v>2868</v>
+      </c>
+      <c r="H1336" t="s">
+        <v>3002</v>
+      </c>
+      <c r="I1336" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1337">
+        <v>21181</v>
+      </c>
+      <c r="B1337">
+        <v>2021</v>
+      </c>
+      <c r="E1337" t="s">
+        <v>2866</v>
+      </c>
+      <c r="F1337" t="s">
+        <v>2869</v>
+      </c>
+      <c r="H1337" t="s">
+        <v>3002</v>
+      </c>
+      <c r="I1337" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1338">
+        <v>21188</v>
+      </c>
+      <c r="B1338">
+        <v>2021</v>
+      </c>
+      <c r="E1338" t="s">
+        <v>2866</v>
+      </c>
+      <c r="F1338" t="s">
+        <v>2870</v>
+      </c>
+      <c r="H1338" t="s">
+        <v>3002</v>
+      </c>
+      <c r="I1338" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1339">
+        <v>21024</v>
+      </c>
+      <c r="B1339">
+        <v>2021</v>
+      </c>
+      <c r="E1339" t="s">
+        <v>2871</v>
+      </c>
+      <c r="F1339" t="s">
+        <v>2872</v>
+      </c>
+      <c r="H1339" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1340">
+        <v>21055</v>
+      </c>
+      <c r="B1340">
+        <v>2021</v>
+      </c>
+      <c r="E1340" t="s">
+        <v>2871</v>
+      </c>
+      <c r="F1340" t="s">
+        <v>2873</v>
+      </c>
+      <c r="H1340" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1340" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1341">
+        <v>21145</v>
+      </c>
+      <c r="B1341">
+        <v>2021</v>
+      </c>
+      <c r="E1341" t="s">
+        <v>2871</v>
+      </c>
+      <c r="F1341" t="s">
+        <v>2874</v>
+      </c>
+      <c r="H1341" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1341" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1342">
+        <v>21148</v>
+      </c>
+      <c r="B1342">
+        <v>2021</v>
+      </c>
+      <c r="E1342" t="s">
+        <v>2875</v>
+      </c>
+      <c r="F1342" t="s">
+        <v>2876</v>
+      </c>
+      <c r="H1342" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1342" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1343">
+        <v>21063</v>
+      </c>
+      <c r="B1343">
+        <v>2021</v>
+      </c>
+      <c r="E1343" t="s">
+        <v>2877</v>
+      </c>
+      <c r="F1343" t="s">
+        <v>2878</v>
+      </c>
+      <c r="H1343" t="s">
+        <v>1595</v>
+      </c>
+      <c r="I1343" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1344">
+        <v>21161</v>
+      </c>
+      <c r="B1344">
+        <v>2021</v>
+      </c>
+      <c r="E1344" t="s">
+        <v>2877</v>
+      </c>
+      <c r="F1344" t="s">
+        <v>2938</v>
+      </c>
+      <c r="H1344" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1345">
+        <v>21014</v>
+      </c>
+      <c r="B1345">
+        <v>2021</v>
+      </c>
+      <c r="E1345" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1345" t="s">
+        <v>2879</v>
+      </c>
+      <c r="H1345" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1346">
+        <v>21120</v>
+      </c>
+      <c r="B1346">
+        <v>2021</v>
+      </c>
+      <c r="E1346" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1346" t="s">
+        <v>2880</v>
+      </c>
+      <c r="H1346" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1346" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1347">
+        <v>21162</v>
+      </c>
+      <c r="B1347">
+        <v>2021</v>
+      </c>
+      <c r="E1347" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1347" t="s">
+        <v>2881</v>
+      </c>
+      <c r="H1347" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1347" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1348">
+        <v>21213</v>
+      </c>
+      <c r="B1348">
+        <v>2021</v>
+      </c>
+      <c r="E1348" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1348" t="s">
+        <v>2939</v>
+      </c>
+      <c r="H1348" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1348" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1349">
+        <v>21121</v>
+      </c>
+      <c r="B1349">
+        <v>2021</v>
+      </c>
+      <c r="E1349" t="s">
+        <v>2940</v>
+      </c>
+      <c r="F1349" t="s">
+        <v>2941</v>
+      </c>
+      <c r="H1349" t="s">
+        <v>3002</v>
+      </c>
+      <c r="I1349" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1350">
+        <v>21084</v>
+      </c>
+      <c r="B1350">
+        <v>2021</v>
+      </c>
+      <c r="E1350" t="s">
+        <v>2882</v>
+      </c>
+      <c r="F1350" t="s">
+        <v>2883</v>
+      </c>
+      <c r="H1350" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1350" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1351">
+        <v>21096</v>
+      </c>
+      <c r="B1351">
+        <v>2021</v>
+      </c>
+      <c r="E1351" t="s">
+        <v>2884</v>
+      </c>
+      <c r="F1351" t="s">
+        <v>2885</v>
+      </c>
+      <c r="H1351" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1352">
+        <v>21197</v>
+      </c>
+      <c r="B1352">
+        <v>2021</v>
+      </c>
+      <c r="E1352" t="s">
+        <v>2887</v>
+      </c>
+      <c r="F1352" t="s">
+        <v>2888</v>
+      </c>
+      <c r="H1352" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1352" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1353">
+        <v>21208</v>
+      </c>
+      <c r="B1353">
+        <v>2021</v>
+      </c>
+      <c r="E1353" t="s">
+        <v>2887</v>
+      </c>
+      <c r="F1353" t="s">
+        <v>2889</v>
+      </c>
+      <c r="H1353" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1353" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1354">
+        <v>21001</v>
+      </c>
+      <c r="B1354">
+        <v>2021</v>
+      </c>
+      <c r="E1354" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1354" t="s">
+        <v>2891</v>
+      </c>
+      <c r="H1354" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1355">
+        <v>21003</v>
+      </c>
+      <c r="B1355">
+        <v>2021</v>
+      </c>
+      <c r="E1355" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1355" t="s">
+        <v>2892</v>
+      </c>
+      <c r="H1355" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1356">
+        <v>21004</v>
+      </c>
+      <c r="B1356">
+        <v>2021</v>
+      </c>
+      <c r="E1356" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1356" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1356" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1357">
+        <v>21009</v>
+      </c>
+      <c r="B1357">
+        <v>2021</v>
+      </c>
+      <c r="E1357" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1357" t="s">
+        <v>2893</v>
+      </c>
+      <c r="H1357" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1358">
+        <v>21015</v>
+      </c>
+      <c r="B1358">
+        <v>2021</v>
+      </c>
+      <c r="E1358" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1358" t="s">
+        <v>2894</v>
+      </c>
+      <c r="H1358" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1359">
+        <v>21020</v>
+      </c>
+      <c r="B1359">
+        <v>2021</v>
+      </c>
+      <c r="E1359" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1359" t="s">
+        <v>2895</v>
+      </c>
+      <c r="H1359" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1360">
+        <v>21026</v>
+      </c>
+      <c r="B1360">
+        <v>2021</v>
+      </c>
+      <c r="E1360" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1360" t="s">
+        <v>2896</v>
+      </c>
+      <c r="H1360" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1361">
+        <v>21034</v>
+      </c>
+      <c r="B1361">
+        <v>2021</v>
+      </c>
+      <c r="E1361" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1361" t="s">
+        <v>2897</v>
+      </c>
+      <c r="H1361" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1362">
+        <v>21035</v>
+      </c>
+      <c r="B1362">
+        <v>2021</v>
+      </c>
+      <c r="E1362" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1362" t="s">
+        <v>2898</v>
+      </c>
+      <c r="H1362" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1363">
+        <v>21037</v>
+      </c>
+      <c r="B1363">
+        <v>2021</v>
+      </c>
+      <c r="E1363" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1363" t="s">
+        <v>2899</v>
+      </c>
+      <c r="H1363" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1364">
+        <v>21038</v>
+      </c>
+      <c r="B1364">
+        <v>2021</v>
+      </c>
+      <c r="E1364" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1364" t="s">
+        <v>2900</v>
+      </c>
+      <c r="H1364" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1365">
+        <v>21040</v>
+      </c>
+      <c r="B1365">
+        <v>2021</v>
+      </c>
+      <c r="E1365" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1365" t="s">
+        <v>2901</v>
+      </c>
+      <c r="H1365" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1366">
+        <v>21041</v>
+      </c>
+      <c r="B1366">
+        <v>2021</v>
+      </c>
+      <c r="E1366" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1366" t="s">
+        <v>2902</v>
+      </c>
+      <c r="H1366" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1367">
+        <v>21045</v>
+      </c>
+      <c r="B1367">
+        <v>2021</v>
+      </c>
+      <c r="E1367" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1367" t="s">
+        <v>2903</v>
+      </c>
+      <c r="H1367" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1368">
+        <v>21048</v>
+      </c>
+      <c r="B1368">
+        <v>2021</v>
+      </c>
+      <c r="E1368" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1368" t="s">
+        <v>2904</v>
+      </c>
+      <c r="H1368" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1369">
+        <v>21064</v>
+      </c>
+      <c r="B1369">
+        <v>2021</v>
+      </c>
+      <c r="E1369" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1369" t="s">
+        <v>2905</v>
+      </c>
+      <c r="H1369" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1370">
+        <v>21065</v>
+      </c>
+      <c r="B1370">
+        <v>2021</v>
+      </c>
+      <c r="E1370" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1370" t="s">
+        <v>2906</v>
+      </c>
+      <c r="H1370" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1371">
+        <v>21069</v>
+      </c>
+      <c r="B1371">
+        <v>2021</v>
+      </c>
+      <c r="E1371" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1371" t="s">
+        <v>2907</v>
+      </c>
+      <c r="H1371" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1372">
+        <v>21071</v>
+      </c>
+      <c r="B1372">
+        <v>2021</v>
+      </c>
+      <c r="E1372" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1372" t="s">
+        <v>2908</v>
+      </c>
+      <c r="H1372" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1373">
+        <v>21074</v>
+      </c>
+      <c r="B1373">
+        <v>2021</v>
+      </c>
+      <c r="E1373" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1373" t="s">
+        <v>2909</v>
+      </c>
+      <c r="H1373" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1374">
+        <v>21085</v>
+      </c>
+      <c r="B1374">
+        <v>2021</v>
+      </c>
+      <c r="E1374" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1374" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H1374" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1375">
+        <v>21090</v>
+      </c>
+      <c r="B1375">
+        <v>2021</v>
+      </c>
+      <c r="E1375" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1375" t="s">
+        <v>2910</v>
+      </c>
+      <c r="H1375" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1376">
+        <v>21091</v>
+      </c>
+      <c r="B1376">
+        <v>2021</v>
+      </c>
+      <c r="E1376" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1376" t="s">
+        <v>2911</v>
+      </c>
+      <c r="H1376" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1377">
+        <v>21100</v>
+      </c>
+      <c r="B1377">
+        <v>2021</v>
+      </c>
+      <c r="E1377" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1377" t="s">
+        <v>2912</v>
+      </c>
+      <c r="H1377" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1378">
+        <v>21103</v>
+      </c>
+      <c r="B1378">
+        <v>2021</v>
+      </c>
+      <c r="E1378" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1378" t="s">
+        <v>2913</v>
+      </c>
+      <c r="H1378" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1379">
+        <v>21110</v>
+      </c>
+      <c r="B1379">
+        <v>2021</v>
+      </c>
+      <c r="E1379" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1379" t="s">
+        <v>2914</v>
+      </c>
+      <c r="H1379" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1380">
+        <v>21113</v>
+      </c>
+      <c r="B1380">
+        <v>2021</v>
+      </c>
+      <c r="E1380" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1380" t="s">
+        <v>2915</v>
+      </c>
+      <c r="H1380" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1381">
+        <v>21114</v>
+      </c>
+      <c r="B1381">
+        <v>2021</v>
+      </c>
+      <c r="E1381" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1381" t="s">
+        <v>2916</v>
+      </c>
+      <c r="H1381" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1382">
+        <v>21119</v>
+      </c>
+      <c r="B1382">
+        <v>2021</v>
+      </c>
+      <c r="E1382" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1382" t="s">
+        <v>2917</v>
+      </c>
+      <c r="H1382" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1383">
+        <v>21122</v>
+      </c>
+      <c r="B1383">
+        <v>2021</v>
+      </c>
+      <c r="E1383" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1383" t="s">
+        <v>2918</v>
+      </c>
+      <c r="H1383" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1384">
+        <v>21126</v>
+      </c>
+      <c r="B1384">
+        <v>2021</v>
+      </c>
+      <c r="E1384" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1384" t="s">
+        <v>2919</v>
+      </c>
+      <c r="H1384" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1385">
+        <v>21128</v>
+      </c>
+      <c r="B1385">
+        <v>2021</v>
+      </c>
+      <c r="E1385" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1385" t="s">
+        <v>2920</v>
+      </c>
+      <c r="H1385" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1386">
+        <v>21132</v>
+      </c>
+      <c r="B1386">
+        <v>2021</v>
+      </c>
+      <c r="E1386" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1386" t="s">
+        <v>2921</v>
+      </c>
+      <c r="H1386" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1387">
+        <v>21133</v>
+      </c>
+      <c r="B1387">
+        <v>2021</v>
+      </c>
+      <c r="E1387" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1387" t="s">
+        <v>2922</v>
+      </c>
+      <c r="H1387" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1388">
+        <v>21135</v>
+      </c>
+      <c r="B1388">
+        <v>2021</v>
+      </c>
+      <c r="E1388" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1388" t="s">
+        <v>2923</v>
+      </c>
+      <c r="H1388" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1389">
+        <v>21140</v>
+      </c>
+      <c r="B1389">
+        <v>2021</v>
+      </c>
+      <c r="E1389" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1389" t="s">
+        <v>2924</v>
+      </c>
+      <c r="H1389" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1390">
+        <v>21142</v>
+      </c>
+      <c r="B1390">
+        <v>2021</v>
+      </c>
+      <c r="E1390" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1390" t="s">
+        <v>2925</v>
+      </c>
+      <c r="H1390" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1391">
+        <v>21144</v>
+      </c>
+      <c r="B1391">
+        <v>2021</v>
+      </c>
+      <c r="E1391" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1391" t="s">
+        <v>2926</v>
+      </c>
+      <c r="H1391" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1392">
+        <v>21149</v>
+      </c>
+      <c r="B1392">
+        <v>2021</v>
+      </c>
+      <c r="E1392" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1392" t="s">
+        <v>2927</v>
+      </c>
+      <c r="H1392" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1393">
+        <v>21153</v>
+      </c>
+      <c r="B1393">
+        <v>2021</v>
+      </c>
+      <c r="E1393" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1393" t="s">
+        <v>2928</v>
+      </c>
+      <c r="H1393" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1394">
+        <v>21154</v>
+      </c>
+      <c r="B1394">
+        <v>2021</v>
+      </c>
+      <c r="E1394" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1394" t="s">
+        <v>2929</v>
+      </c>
+      <c r="H1394" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1395">
+        <v>21156</v>
+      </c>
+      <c r="B1395">
+        <v>2021</v>
+      </c>
+      <c r="E1395" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1395" t="s">
+        <v>2930</v>
+      </c>
+      <c r="H1395" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1396">
+        <v>21157</v>
+      </c>
+      <c r="B1396">
+        <v>2021</v>
+      </c>
+      <c r="E1396" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1396" t="s">
+        <v>2931</v>
+      </c>
+      <c r="H1396" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1397">
+        <v>21177</v>
+      </c>
+      <c r="B1397">
+        <v>2021</v>
+      </c>
+      <c r="E1397" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1397" t="s">
+        <v>2932</v>
+      </c>
+      <c r="H1397" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1398">
+        <v>21179</v>
+      </c>
+      <c r="B1398">
+        <v>2021</v>
+      </c>
+      <c r="E1398" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1398" t="s">
+        <v>2933</v>
+      </c>
+      <c r="H1398" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1399">
+        <v>21207</v>
+      </c>
+      <c r="B1399">
+        <v>2021</v>
+      </c>
+      <c r="E1399" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1399" t="s">
+        <v>2934</v>
+      </c>
+      <c r="H1399" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1400">
+        <v>21212</v>
+      </c>
+      <c r="B1400">
+        <v>2021</v>
+      </c>
+      <c r="E1400" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1400" t="s">
+        <v>2636</v>
+      </c>
+      <c r="H1400" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1401">
+        <v>21214</v>
+      </c>
+      <c r="B1401">
+        <v>2021</v>
+      </c>
+      <c r="E1401" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1401" t="s">
+        <v>2935</v>
+      </c>
+      <c r="H1401" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1402">
+        <v>21217</v>
+      </c>
+      <c r="B1402">
+        <v>2021</v>
+      </c>
+      <c r="E1402" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1402" t="s">
+        <v>2936</v>
+      </c>
+      <c r="H1402" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1403">
+        <v>21086</v>
+      </c>
+      <c r="B1403">
+        <v>2021</v>
+      </c>
+      <c r="E1403" t="s">
+        <v>2937</v>
+      </c>
+      <c r="F1403" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H1403" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1404">
+        <v>21187</v>
+      </c>
+      <c r="B1404">
+        <v>2021</v>
+      </c>
+      <c r="E1404" t="s">
+        <v>2937</v>
+      </c>
+      <c r="F1404" t="s">
+        <v>2331</v>
+      </c>
+      <c r="H1404" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1405">
         <v>21129</v>
       </c>
-      <c r="B1305">
+      <c r="B1405">
         <v>2022</v>
       </c>
-      <c r="D1305" t="s">
+      <c r="F1405" t="s">
         <v>2827</v>
       </c>
-      <c r="F1305" t="s">
-        <v>2828</v>
-      </c>
-      <c r="H1305" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1305" t="s">
-        <v>2829</v>
+      <c r="H1405" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1406">
+        <v>21141</v>
+      </c>
+      <c r="B1406">
+        <v>2024</v>
+      </c>
+      <c r="E1406" t="s">
+        <v>2995</v>
+      </c>
+      <c r="F1406" t="s">
+        <v>2996</v>
+      </c>
+      <c r="H1406" t="s">
+        <v>2995</v>
+      </c>
+      <c r="I1406" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1407">
+        <v>21045</v>
+      </c>
+      <c r="B1407">
+        <v>2024</v>
+      </c>
+      <c r="E1407" t="s">
+        <v>2832</v>
+      </c>
+      <c r="F1407" t="s">
+        <v>2242</v>
+      </c>
+      <c r="H1407" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1407" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1408">
+        <v>21054</v>
+      </c>
+      <c r="B1408">
+        <v>2024</v>
+      </c>
+      <c r="E1408" t="s">
+        <v>2832</v>
+      </c>
+      <c r="F1408" t="s">
+        <v>2942</v>
+      </c>
+      <c r="H1408" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1408" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1409">
+        <v>21144</v>
+      </c>
+      <c r="B1409">
+        <v>2024</v>
+      </c>
+      <c r="E1409" t="s">
+        <v>2832</v>
+      </c>
+      <c r="F1409" t="s">
+        <v>2943</v>
+      </c>
+      <c r="H1409" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1409" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1410">
+        <v>21024</v>
+      </c>
+      <c r="B1410">
+        <v>2024</v>
+      </c>
+      <c r="E1410" t="s">
+        <v>2848</v>
+      </c>
+      <c r="F1410" t="s">
+        <v>2872</v>
+      </c>
+      <c r="H1410" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1410" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1411">
+        <v>21027</v>
+      </c>
+      <c r="B1411">
+        <v>2024</v>
+      </c>
+      <c r="E1411" t="s">
+        <v>2848</v>
+      </c>
+      <c r="F1411" t="s">
+        <v>2944</v>
+      </c>
+      <c r="H1411" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1411" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1412">
+        <v>21062</v>
+      </c>
+      <c r="B1412">
+        <v>2024</v>
+      </c>
+      <c r="E1412" t="s">
+        <v>2848</v>
+      </c>
+      <c r="F1412" t="s">
+        <v>2945</v>
+      </c>
+      <c r="H1412" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1412" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1413">
+        <v>21090</v>
+      </c>
+      <c r="B1413">
+        <v>2024</v>
+      </c>
+      <c r="E1413" t="s">
+        <v>2848</v>
+      </c>
+      <c r="F1413" t="s">
+        <v>2946</v>
+      </c>
+      <c r="H1413" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1413" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1414">
+        <v>21217</v>
+      </c>
+      <c r="B1414">
+        <v>2024</v>
+      </c>
+      <c r="E1414" t="s">
+        <v>2848</v>
+      </c>
+      <c r="F1414" t="s">
+        <v>2947</v>
+      </c>
+      <c r="H1414" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1414" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1415">
+        <v>21007</v>
+      </c>
+      <c r="B1415">
+        <v>2024</v>
+      </c>
+      <c r="E1415" t="s">
+        <v>2948</v>
+      </c>
+      <c r="F1415" t="s">
+        <v>2949</v>
+      </c>
+      <c r="H1415" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1415" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1416">
+        <v>21077</v>
+      </c>
+      <c r="B1416">
+        <v>2024</v>
+      </c>
+      <c r="E1416" t="s">
+        <v>2948</v>
+      </c>
+      <c r="F1416" t="s">
+        <v>2950</v>
+      </c>
+      <c r="H1416" t="s">
+        <v>2845</v>
+      </c>
+      <c r="I1416" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1417">
+        <v>21139</v>
+      </c>
+      <c r="B1417">
+        <v>2024</v>
+      </c>
+      <c r="E1417" t="s">
+        <v>2948</v>
+      </c>
+      <c r="F1417" t="s">
+        <v>2951</v>
+      </c>
+      <c r="H1417" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1417" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1418">
+        <v>21005</v>
+      </c>
+      <c r="B1418">
+        <v>2024</v>
+      </c>
+      <c r="E1418" t="s">
+        <v>2952</v>
+      </c>
+      <c r="F1418" t="s">
+        <v>2953</v>
+      </c>
+      <c r="H1418" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1418" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1419">
+        <v>21138</v>
+      </c>
+      <c r="B1419">
+        <v>2024</v>
+      </c>
+      <c r="E1419" t="s">
+        <v>2952</v>
+      </c>
+      <c r="F1419" t="s">
+        <v>2954</v>
+      </c>
+      <c r="H1419" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1419" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1420">
+        <v>21166</v>
+      </c>
+      <c r="B1420">
+        <v>2024</v>
+      </c>
+      <c r="E1420" t="s">
+        <v>2952</v>
+      </c>
+      <c r="F1420" t="s">
+        <v>2955</v>
+      </c>
+      <c r="H1420" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1420" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1421">
+        <v>21114</v>
+      </c>
+      <c r="B1421">
+        <v>2024</v>
+      </c>
+      <c r="E1421" t="s">
+        <v>2956</v>
+      </c>
+      <c r="F1421" t="s">
+        <v>1444</v>
+      </c>
+      <c r="H1421" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1421" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1422">
+        <v>21067</v>
+      </c>
+      <c r="B1422">
+        <v>2024</v>
+      </c>
+      <c r="E1422" t="s">
+        <v>2957</v>
+      </c>
+      <c r="F1422" t="s">
+        <v>2958</v>
+      </c>
+      <c r="H1422" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1422" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1423">
+        <v>21042</v>
+      </c>
+      <c r="B1423">
+        <v>2024</v>
+      </c>
+      <c r="E1423" t="s">
+        <v>2959</v>
+      </c>
+      <c r="F1423" t="s">
+        <v>2960</v>
+      </c>
+      <c r="H1423" t="s">
+        <v>3002</v>
+      </c>
+      <c r="I1423" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1424">
+        <v>21096</v>
+      </c>
+      <c r="B1424">
+        <v>2024</v>
+      </c>
+      <c r="E1424" t="s">
+        <v>2959</v>
+      </c>
+      <c r="F1424" t="s">
+        <v>2886</v>
+      </c>
+      <c r="H1424" t="s">
+        <v>3002</v>
+      </c>
+      <c r="I1424" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1425">
+        <v>21043</v>
+      </c>
+      <c r="B1425">
+        <v>2024</v>
+      </c>
+      <c r="E1425" t="s">
+        <v>2961</v>
+      </c>
+      <c r="F1425" t="s">
+        <v>2962</v>
+      </c>
+      <c r="H1425" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1425" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1426">
+        <v>21044</v>
+      </c>
+      <c r="B1426">
+        <v>2024</v>
+      </c>
+      <c r="E1426" t="s">
+        <v>2961</v>
+      </c>
+      <c r="F1426" t="s">
+        <v>2963</v>
+      </c>
+      <c r="H1426" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1426" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1427">
+        <v>21103</v>
+      </c>
+      <c r="B1427">
+        <v>2024</v>
+      </c>
+      <c r="E1427" t="s">
+        <v>2961</v>
+      </c>
+      <c r="F1427" t="s">
+        <v>2964</v>
+      </c>
+      <c r="H1427" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1427" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1428">
+        <v>21146</v>
+      </c>
+      <c r="B1428">
+        <v>2024</v>
+      </c>
+      <c r="E1428" t="s">
+        <v>2961</v>
+      </c>
+      <c r="F1428" t="s">
+        <v>2965</v>
+      </c>
+      <c r="H1428" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1428" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1429">
+        <v>21206</v>
+      </c>
+      <c r="B1429">
+        <v>2024</v>
+      </c>
+      <c r="E1429" t="s">
+        <v>2961</v>
+      </c>
+      <c r="F1429" t="s">
+        <v>2966</v>
+      </c>
+      <c r="H1429" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1429" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1430">
+        <v>21210</v>
+      </c>
+      <c r="B1430">
+        <v>2024</v>
+      </c>
+      <c r="E1430" t="s">
+        <v>2961</v>
+      </c>
+      <c r="F1430" t="s">
+        <v>2967</v>
+      </c>
+      <c r="H1430" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1430" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1431">
+        <v>21208</v>
+      </c>
+      <c r="B1431">
+        <v>2024</v>
+      </c>
+      <c r="E1431" t="s">
+        <v>2968</v>
+      </c>
+      <c r="F1431" t="s">
+        <v>2575</v>
+      </c>
+      <c r="H1431" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1431" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1432">
+        <v>21017</v>
+      </c>
+      <c r="B1432">
+        <v>2024</v>
+      </c>
+      <c r="E1432" t="s">
+        <v>2969</v>
+      </c>
+      <c r="F1432" t="s">
+        <v>2970</v>
+      </c>
+      <c r="H1432" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1432" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1433">
+        <v>21191</v>
+      </c>
+      <c r="B1433">
+        <v>2024</v>
+      </c>
+      <c r="E1433" t="s">
+        <v>2971</v>
+      </c>
+      <c r="F1433" t="s">
+        <v>2972</v>
+      </c>
+      <c r="H1433" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1433" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1434">
+        <v>21015</v>
+      </c>
+      <c r="B1434">
+        <v>2024</v>
+      </c>
+      <c r="E1434" t="s">
+        <v>2973</v>
+      </c>
+      <c r="F1434" t="s">
+        <v>2894</v>
+      </c>
+      <c r="H1434" t="s">
+        <v>2845</v>
+      </c>
+      <c r="I1434" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1435">
+        <v>21051</v>
+      </c>
+      <c r="B1435">
+        <v>2024</v>
+      </c>
+      <c r="E1435" t="s">
+        <v>2973</v>
+      </c>
+      <c r="F1435" t="s">
+        <v>2974</v>
+      </c>
+      <c r="H1435" t="s">
+        <v>2845</v>
+      </c>
+      <c r="I1435" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1436">
+        <v>21094</v>
+      </c>
+      <c r="B1436">
+        <v>2024</v>
+      </c>
+      <c r="E1436" t="s">
+        <v>2973</v>
+      </c>
+      <c r="F1436" t="s">
+        <v>2975</v>
+      </c>
+      <c r="H1436" t="s">
+        <v>2845</v>
+      </c>
+      <c r="I1436" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1437">
+        <v>21104</v>
+      </c>
+      <c r="B1437">
+        <v>2024</v>
+      </c>
+      <c r="E1437" t="s">
+        <v>2973</v>
+      </c>
+      <c r="F1437" t="s">
+        <v>2976</v>
+      </c>
+      <c r="H1437" t="s">
+        <v>2845</v>
+      </c>
+      <c r="I1437" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1438">
+        <v>21143</v>
+      </c>
+      <c r="B1438">
+        <v>2024</v>
+      </c>
+      <c r="E1438" t="s">
+        <v>2973</v>
+      </c>
+      <c r="F1438" t="s">
+        <v>1801</v>
+      </c>
+      <c r="H1438" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1438" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1439">
+        <v>21186</v>
+      </c>
+      <c r="B1439">
+        <v>2024</v>
+      </c>
+      <c r="E1439" t="s">
+        <v>2973</v>
+      </c>
+      <c r="F1439" t="s">
+        <v>2321</v>
+      </c>
+      <c r="H1439" t="s">
+        <v>2845</v>
+      </c>
+      <c r="I1439" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1440">
+        <v>21087</v>
+      </c>
+      <c r="B1440">
+        <v>2024</v>
+      </c>
+      <c r="E1440" t="s">
+        <v>2977</v>
+      </c>
+      <c r="F1440" t="s">
+        <v>2978</v>
+      </c>
+      <c r="H1440" t="s">
+        <v>2845</v>
+      </c>
+      <c r="I1440" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1441">
+        <v>21093</v>
+      </c>
+      <c r="B1441">
+        <v>2024</v>
+      </c>
+      <c r="E1441" t="s">
+        <v>2977</v>
+      </c>
+      <c r="F1441" t="s">
+        <v>2979</v>
+      </c>
+      <c r="H1441" t="s">
+        <v>1595</v>
+      </c>
+      <c r="I1441" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1442">
+        <v>21154</v>
+      </c>
+      <c r="B1442">
+        <v>2024</v>
+      </c>
+      <c r="E1442" t="s">
+        <v>2977</v>
+      </c>
+      <c r="F1442" t="s">
+        <v>2980</v>
+      </c>
+      <c r="H1442" t="s">
+        <v>2845</v>
+      </c>
+      <c r="I1442" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1443">
+        <v>21158</v>
+      </c>
+      <c r="B1443">
+        <v>2024</v>
+      </c>
+      <c r="E1443" t="s">
+        <v>2977</v>
+      </c>
+      <c r="F1443" t="s">
+        <v>2981</v>
+      </c>
+      <c r="H1443" t="s">
+        <v>2845</v>
+      </c>
+      <c r="I1443" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1444">
+        <v>21174</v>
+      </c>
+      <c r="B1444">
+        <v>2024</v>
+      </c>
+      <c r="E1444" t="s">
+        <v>2982</v>
+      </c>
+      <c r="F1444" t="s">
+        <v>2178</v>
+      </c>
+      <c r="H1444" t="s">
+        <v>2845</v>
+      </c>
+      <c r="I1444" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1445">
+        <v>21182</v>
+      </c>
+      <c r="B1445">
+        <v>2024</v>
+      </c>
+      <c r="E1445" t="s">
+        <v>2982</v>
+      </c>
+      <c r="F1445" t="s">
+        <v>2983</v>
+      </c>
+      <c r="H1445" t="s">
+        <v>2845</v>
+      </c>
+      <c r="I1445" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1446">
+        <v>21214</v>
+      </c>
+      <c r="B1446">
+        <v>2024</v>
+      </c>
+      <c r="E1446" t="s">
+        <v>2982</v>
+      </c>
+      <c r="F1446" t="s">
+        <v>2652</v>
+      </c>
+      <c r="H1446" t="s">
+        <v>2845</v>
+      </c>
+      <c r="I1446" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1447">
+        <v>21039</v>
+      </c>
+      <c r="B1447">
+        <v>2024</v>
+      </c>
+      <c r="E1447" t="s">
+        <v>2984</v>
+      </c>
+      <c r="F1447" t="s">
+        <v>2985</v>
+      </c>
+      <c r="H1447" t="s">
+        <v>2845</v>
+      </c>
+      <c r="I1447" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1448">
+        <v>21131</v>
+      </c>
+      <c r="B1448">
+        <v>2024</v>
+      </c>
+      <c r="E1448" t="s">
+        <v>2984</v>
+      </c>
+      <c r="F1448" t="s">
+        <v>2986</v>
+      </c>
+      <c r="H1448" t="s">
+        <v>2845</v>
+      </c>
+      <c r="I1448" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1449">
+        <v>21147</v>
+      </c>
+      <c r="B1449">
+        <v>2024</v>
+      </c>
+      <c r="E1449" t="s">
+        <v>2984</v>
+      </c>
+      <c r="F1449" t="s">
+        <v>2987</v>
+      </c>
+      <c r="H1449" t="s">
+        <v>2845</v>
+      </c>
+      <c r="I1449" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1450">
+        <v>21075</v>
+      </c>
+      <c r="B1450">
+        <v>2024</v>
+      </c>
+      <c r="E1450" t="s">
+        <v>2988</v>
+      </c>
+      <c r="F1450" t="s">
+        <v>2989</v>
+      </c>
+      <c r="H1450" t="s">
+        <v>1595</v>
+      </c>
+      <c r="I1450" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1451">
+        <v>21173</v>
+      </c>
+      <c r="B1451">
+        <v>2024</v>
+      </c>
+      <c r="E1451" t="s">
+        <v>2990</v>
+      </c>
+      <c r="F1451" t="s">
+        <v>2868</v>
+      </c>
+      <c r="H1451" t="s">
+        <v>3002</v>
+      </c>
+      <c r="I1451" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1452">
+        <v>21117</v>
+      </c>
+      <c r="B1452">
+        <v>2024</v>
+      </c>
+      <c r="E1452" t="s">
+        <v>2991</v>
+      </c>
+      <c r="F1452" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H1452" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1452" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1453">
+        <v>21036</v>
+      </c>
+      <c r="B1453">
+        <v>2024</v>
+      </c>
+      <c r="E1453" t="s">
+        <v>2992</v>
+      </c>
+      <c r="F1453" t="s">
+        <v>2993</v>
+      </c>
+      <c r="H1453" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1453" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1454">
+        <v>21056</v>
+      </c>
+      <c r="B1454">
+        <v>2024</v>
+      </c>
+      <c r="E1454" t="s">
+        <v>2992</v>
+      </c>
+      <c r="F1454" t="s">
+        <v>2994</v>
+      </c>
+      <c r="H1454" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1454" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1455">
+        <v>21053</v>
+      </c>
+      <c r="B1455">
+        <v>2025</v>
+      </c>
+      <c r="E1455" t="s">
+        <v>2997</v>
+      </c>
+      <c r="F1455" t="s">
+        <v>2998</v>
+      </c>
+      <c r="H1455" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1455" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1456">
+        <v>21194</v>
+      </c>
+      <c r="B1456">
+        <v>2025</v>
+      </c>
+      <c r="E1456" t="s">
+        <v>2973</v>
+      </c>
+      <c r="F1456" t="s">
+        <v>2999</v>
+      </c>
+      <c r="H1456" t="s">
+        <v>2845</v>
+      </c>
+      <c r="I1456" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1457">
+        <v>21199</v>
+      </c>
+      <c r="B1457">
+        <v>2025</v>
+      </c>
+      <c r="E1457" t="s">
+        <v>2982</v>
+      </c>
+      <c r="F1457" t="s">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
@@ -67845,6 +71225,9 @@
     <filterColumn colId="6">
       <filters blank="1"/>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A880:S1458">
+      <sortCondition ref="B1:B1458"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
